--- a/VARIABLES/petroliCru_filtrat.xlsx
+++ b/VARIABLES/petroliCru_filtrat.xlsx
@@ -591,7 +591,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45452</v>
+        <v>45541</v>
       </c>
       <c r="B7" t="n">
         <v>78.45</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45445</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="n">
         <v>75.53</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45424</v>
+        <v>45631</v>
       </c>
       <c r="B11" t="n">
         <v>80.06</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>85.66</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45361</v>
+        <v>45568</v>
       </c>
       <c r="B20" t="n">
         <v>81.04000000000001</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45333</v>
+        <v>45598</v>
       </c>
       <c r="B24" t="n">
         <v>79.19</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45326</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="n">
         <v>76.84</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B29" t="n">
         <v>72.68000000000001</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45270</v>
+        <v>45211</v>
       </c>
       <c r="B33" t="n">
         <v>71.43000000000001</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="B34" t="n">
         <v>71.23</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45242</v>
+        <v>45271</v>
       </c>
       <c r="B37" t="n">
         <v>75.89</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45235</v>
+        <v>45057</v>
       </c>
       <c r="B38" t="n">
         <v>77.17</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45207</v>
+        <v>45148</v>
       </c>
       <c r="B42" t="n">
         <v>87.69</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>44936</v>
       </c>
       <c r="B43" t="n">
         <v>82.79000000000001</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45179</v>
+        <v>45208</v>
       </c>
       <c r="B46" t="n">
         <v>90.77</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45172</v>
+        <v>44994</v>
       </c>
       <c r="B47" t="n">
         <v>87.51000000000001</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45144</v>
+        <v>45085</v>
       </c>
       <c r="B51" t="n">
         <v>83.19</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45116</v>
+        <v>45176</v>
       </c>
       <c r="B55" t="n">
         <v>75.42</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45109</v>
+        <v>44964</v>
       </c>
       <c r="B56" t="n">
         <v>73.86</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45088</v>
+        <v>45236</v>
       </c>
       <c r="B59" t="n">
         <v>71.78</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45081</v>
+        <v>45022</v>
       </c>
       <c r="B60" t="n">
         <v>70.17</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45053</v>
+        <v>45112</v>
       </c>
       <c r="B64" t="n">
         <v>70.04000000000001</v>

--- a/VARIABLES/petroliCru_filtrat.xlsx
+++ b/VARIABLES/petroliCru_filtrat.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45633</v>
+        <v>45485</v>
       </c>
       <c r="B10" t="n">
         <v>81.02</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45603</v>
+        <v>45484</v>
       </c>
       <c r="B11" t="n">
         <v>81.38</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45572</v>
+        <v>45483</v>
       </c>
       <c r="B12" t="n">
         <v>81.06999999999999</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45542</v>
+        <v>45482</v>
       </c>
       <c r="B13" t="n">
         <v>80.56</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="B14" t="n">
         <v>81.52</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45419</v>
+        <v>45478</v>
       </c>
       <c r="B15" t="n">
         <v>83.16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>83.94</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45358</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="n">
         <v>83.88</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45329</v>
+        <v>45475</v>
       </c>
       <c r="B18" t="n">
         <v>82.81</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B19" t="n">
         <v>83.38</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45632</v>
+        <v>45455</v>
       </c>
       <c r="B32" t="n">
         <v>78.5</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45602</v>
+        <v>45454</v>
       </c>
       <c r="B33" t="n">
         <v>77.90000000000001</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45571</v>
+        <v>45453</v>
       </c>
       <c r="B34" t="n">
         <v>77.73999999999999</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45479</v>
+        <v>45450</v>
       </c>
       <c r="B35" t="n">
         <v>75.53</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45418</v>
+        <v>45448</v>
       </c>
       <c r="B37" t="n">
         <v>74.06999999999999</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45388</v>
+        <v>45447</v>
       </c>
       <c r="B38" t="n">
         <v>73.25</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45357</v>
+        <v>45446</v>
       </c>
       <c r="B39" t="n">
         <v>74.22</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45570</v>
+        <v>45422</v>
       </c>
       <c r="B55" t="n">
         <v>78.26000000000001</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45540</v>
+        <v>45421</v>
       </c>
       <c r="B56" t="n">
         <v>79.26000000000001</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45509</v>
+        <v>45420</v>
       </c>
       <c r="B57" t="n">
         <v>78.98999999999999</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45478</v>
+        <v>45419</v>
       </c>
       <c r="B58" t="n">
         <v>78.38</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45448</v>
+        <v>45418</v>
       </c>
       <c r="B59" t="n">
         <v>78.48</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45356</v>
+        <v>45415</v>
       </c>
       <c r="B60" t="n">
         <v>78.11</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45327</v>
+        <v>45414</v>
       </c>
       <c r="B61" t="n">
         <v>78.95</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="B62" t="n">
         <v>79</v>

--- a/VARIABLES/petroliCru_filtrat.xlsx
+++ b/VARIABLES/petroliCru_filtrat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,1746 +476,1713 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="B2" t="n">
-        <v>79.91</v>
+        <v>72.14</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>77,02</t>
+          <t>75,58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80,16</t>
+          <t>75,72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76,72</t>
+          <t>71,47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>376,75K</t>
+          <t>534,50K</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4,00%</t>
+          <t>-5,88%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B3" t="n">
-        <v>76.84</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>74,21</t>
+          <t>76,99</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77,09</t>
+          <t>80,16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71,67</t>
+          <t>75,54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1,87M</t>
+          <t>1,40M</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>-0,25%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="B4" t="n">
-        <v>73.52</v>
+        <v>76.84</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>77,30</t>
+          <t>74,21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78,88</t>
+          <t>77,09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72,97</t>
+          <t>71,67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2,09M</t>
+          <t>1,87M</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="B5" t="n">
-        <v>77.16</v>
+        <v>73.52</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80,39</t>
+          <t>77,30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80,69</t>
+          <t>78,88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76,04</t>
+          <t>72,97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,62M</t>
+          <t>2,09M</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-4,72%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="B6" t="n">
-        <v>80.13</v>
+        <v>77.16</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>82,16</t>
+          <t>80,39</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83,82</t>
+          <t>80,69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80,07</t>
+          <t>76,04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1,04M</t>
+          <t>1,62M</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-3,71%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="B7" t="n">
-        <v>82.20999999999999</v>
+        <v>80.13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>83,15</t>
+          <t>82,16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83,74</t>
+          <t>83,82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80,81</t>
+          <t>80,07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,58M</t>
+          <t>1,04M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>-2,53%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="B8" t="n">
-        <v>83.16</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>81,45</t>
+          <t>83,15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84,52</t>
+          <t>83,74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81,38</t>
+          <t>80,81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,36M</t>
+          <t>1,58M</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>-1,14%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45466</v>
+        <v>45473</v>
       </c>
       <c r="B9" t="n">
-        <v>80.64</v>
+        <v>83.16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>79,77</t>
+          <t>81,45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81,78</t>
+          <t>84,52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79,50</t>
+          <t>81,38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>749,67K</t>
+          <t>1,36M</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B10" t="n">
-        <v>80.73</v>
+        <v>80.64</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>78,48</t>
+          <t>79,77</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>82,41</t>
+          <t>81,78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77,98</t>
+          <t>79,50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>581,21K</t>
+          <t>749,67K</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45452</v>
+        <v>45459</v>
       </c>
       <c r="B11" t="n">
-        <v>78.45</v>
+        <v>80.73</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>75,35</t>
+          <t>78,48</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79,32</t>
+          <t>82,41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75,23</t>
+          <t>77,98</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1,51M</t>
+          <t>581,21K</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45445</v>
+        <v>45452</v>
       </c>
       <c r="B12" t="n">
-        <v>75.53</v>
+        <v>78.45</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>76,97</t>
+          <t>75,35</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>77,52</t>
+          <t>79,32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72,48</t>
+          <t>75,23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,73M</t>
+          <t>1,51M</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1,90%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45438</v>
+        <v>45445</v>
       </c>
       <c r="B13" t="n">
-        <v>76.98999999999999</v>
+        <v>75.53</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>77,81</t>
+          <t>76,97</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>80,62</t>
+          <t>77,52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76,67</t>
+          <t>72,48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,31M</t>
+          <t>1,73M</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-1,90%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45431</v>
+        <v>45438</v>
       </c>
       <c r="B14" t="n">
-        <v>77.72</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>80,01</t>
+          <t>77,81</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80,60</t>
+          <t>80,62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76,15</t>
+          <t>76,67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,06M</t>
+          <t>1,31M</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-0,94%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45424</v>
+        <v>45431</v>
       </c>
       <c r="B15" t="n">
-        <v>80.06</v>
+        <v>77.72</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>78,18</t>
+          <t>80,01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>80,14</t>
+          <t>80,60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76,70</t>
+          <t>76,15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1,24M</t>
+          <t>1,06M</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,30%</t>
+          <t>-2,92%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45417</v>
+        <v>45424</v>
       </c>
       <c r="B16" t="n">
-        <v>78.26000000000001</v>
+        <v>80.06</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>78,16</t>
+          <t>78,18</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>79,96</t>
+          <t>80,14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76,89</t>
+          <t>76,70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1,53M</t>
+          <t>1,24M</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>2,30%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45410</v>
+        <v>45417</v>
       </c>
       <c r="B17" t="n">
-        <v>78.11</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>83,69</t>
+          <t>78,16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83,91</t>
+          <t>79,96</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77,96</t>
+          <t>76,89</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1,86M</t>
+          <t>1,53M</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45403</v>
+        <v>45410</v>
       </c>
       <c r="B18" t="n">
-        <v>83.84999999999999</v>
+        <v>78.11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>83,05</t>
+          <t>83,69</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84,46</t>
+          <t>83,91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80,88</t>
+          <t>77,96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,27M</t>
+          <t>1,86M</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-6,85%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45396</v>
+        <v>45403</v>
       </c>
       <c r="B19" t="n">
-        <v>83.14</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>85,93</t>
+          <t>83,05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86,28</t>
+          <t>84,46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81,56</t>
+          <t>80,88</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,01M</t>
+          <t>1,27M</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="n">
-        <v>85.66</v>
+        <v>83.14</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>86,10</t>
+          <t>85,93</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87,67</t>
+          <t>86,28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84,55</t>
+          <t>81,56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1,84M</t>
+          <t>1,01M</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>-2,94%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="n">
-        <v>86.91</v>
+        <v>85.66</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>83,14</t>
+          <t>86,10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87,63</t>
+          <t>87,67</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82,60</t>
+          <t>84,55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1,70M</t>
+          <t>1,84M</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4,50%</t>
+          <t>-1,44%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="n">
-        <v>83.17</v>
+        <v>86.91</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>80,85</t>
+          <t>83,14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83,21</t>
+          <t>87,63</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80,55</t>
+          <t>82,60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1,08M</t>
+          <t>1,70M</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>4,50%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="n">
-        <v>80.63</v>
+        <v>83.17</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>81,03</t>
+          <t>80,85</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>83,85</t>
+          <t>83,21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80,30</t>
+          <t>80,55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>685,54K</t>
+          <t>1,08M</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45361</v>
+        <v>45368</v>
       </c>
       <c r="B24" t="n">
-        <v>81.04000000000001</v>
+        <v>80.63</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>77,80</t>
+          <t>81,03</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>81,62</t>
+          <t>83,85</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76,79</t>
+          <t>80,30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1,44M</t>
+          <t>685,54K</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>-0,51%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45354</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="n">
-        <v>78.01000000000001</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>80,14</t>
+          <t>77,80</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80,67</t>
+          <t>81,62</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>77,52</t>
+          <t>76,79</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1,94M</t>
+          <t>1,44M</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B26" t="n">
-        <v>79.97</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>76,40</t>
+          <t>80,14</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>80,85</t>
+          <t>80,67</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75,84</t>
+          <t>77,52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,56M</t>
+          <t>1,94M</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>-2,45%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="B27" t="n">
-        <v>76.48999999999999</v>
+        <v>79.97</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>78,98</t>
+          <t>76,40</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79,80</t>
+          <t>80,85</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>76,32</t>
+          <t>75,84</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1,04M</t>
+          <t>1,56M</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="B28" t="n">
-        <v>79.19</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>76,60</t>
+          <t>78,98</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79,35</t>
+          <t>79,80</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>75,54</t>
+          <t>76,32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,12M</t>
+          <t>1,04M</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>-3,41%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45326</v>
+        <v>45333</v>
       </c>
       <c r="B29" t="n">
-        <v>76.84</v>
+        <v>79.19</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>72,75</t>
+          <t>76,60</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>77,29</t>
+          <t>79,35</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>71,41</t>
+          <t>75,54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1,64M</t>
+          <t>1,12M</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45319</v>
+        <v>45326</v>
       </c>
       <c r="B30" t="n">
-        <v>72.28</v>
+        <v>76.84</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>78,90</t>
+          <t>72,75</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>79,29</t>
+          <t>77,29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>71,79</t>
+          <t>71,41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1,60M</t>
+          <t>1,64M</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45312</v>
+        <v>45319</v>
       </c>
       <c r="B31" t="n">
-        <v>78.01000000000001</v>
+        <v>72.28</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>73,55</t>
+          <t>78,90</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>78,26</t>
+          <t>79,29</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>72,57</t>
+          <t>71,79</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>365,46K</t>
+          <t>1,60M</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6,50%</t>
+          <t>-7,35%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45305</v>
+        <v>45312</v>
       </c>
       <c r="B32" t="n">
-        <v>73.25</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>72,74</t>
+          <t>73,55</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>74,63</t>
+          <t>78,26</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>70,64</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>72,57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>365,46K</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>6,50%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45305</v>
       </c>
       <c r="B33" t="n">
-        <v>72.68000000000001</v>
+        <v>73.25</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>73,66</t>
+          <t>72,74</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>75,25</t>
+          <t>74,63</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>70,14</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>352,77K</t>
-        </is>
-      </c>
+          <t>70,64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="n">
-        <v>73.81</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>71,67</t>
+          <t>73,66</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>74,24</t>
+          <t>75,25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>69,28</t>
+          <t>70,14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>325,53K</t>
+          <t>352,77K</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>-1,53%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="B35" t="n">
-        <v>71.65000000000001</v>
+        <v>73.81</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>73,49</t>
+          <t>71,67</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>76,18</t>
+          <t>74,24</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>71,25</t>
+          <t>69,28</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>214,49K</t>
+          <t>325,53K</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-2,60%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B36" t="n">
-        <v>73.56</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>72,33</t>
+          <t>73,49</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>75,38</t>
+          <t>76,18</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>70,98</t>
+          <t>71,25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>222,60K</t>
+          <t>214,49K</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>-2,60%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B37" t="n">
-        <v>71.43000000000001</v>
+        <v>73.56</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>71,05</t>
+          <t>72,33</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>72,44</t>
+          <t>75,38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>67,72</t>
+          <t>70,98</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>307,00K</t>
+          <t>222,60K</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B38" t="n">
-        <v>71.23</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>74,68</t>
+          <t>71,05</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>75,03</t>
+          <t>72,44</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>68,81</t>
+          <t>67,72</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>302,25K</t>
+          <t>307,00K</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B39" t="n">
-        <v>74.06999999999999</v>
+        <v>71.23</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>75,31</t>
+          <t>74,68</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>79,60</t>
+          <t>75,03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>73,93</t>
+          <t>68,81</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,46M</t>
+          <t>302,25K</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>-3,83%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B40" t="n">
-        <v>75.54000000000001</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>75,73</t>
+          <t>75,31</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>78,46</t>
+          <t>79,60</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>73,81</t>
+          <t>73,93</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>281,15K</t>
+          <t>1,46M</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-1,95%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B41" t="n">
-        <v>75.89</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>77,12</t>
+          <t>75,73</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>79,77</t>
+          <t>78,46</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>72,17</t>
+          <t>73,81</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>282,30K</t>
+          <t>281,15K</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-0,46%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B42" t="n">
-        <v>77.17</v>
+        <v>75.89</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>81,13</t>
+          <t>77,12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>82,24</t>
+          <t>79,77</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>74,91</t>
+          <t>72,17</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1,40M</t>
+          <t>282,30K</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-1,66%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B43" t="n">
-        <v>80.51000000000001</v>
+        <v>77.17</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>85,14</t>
+          <t>81,13</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>85,18</t>
+          <t>82,24</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>80,10</t>
+          <t>74,91</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>457,28K</t>
+          <t>1,40M</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-4,15%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B44" t="n">
-        <v>85.54000000000001</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>88,03</t>
+          <t>85,14</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>88,23</t>
+          <t>85,18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>82,11</t>
+          <t>80,10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>333,76K</t>
+          <t>457,28K</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>-5,88%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B45" t="n">
-        <v>88.08</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>86,37</t>
+          <t>88,03</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>89,85</t>
+          <t>88,23</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>84,39</t>
+          <t>82,11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1,20M</t>
+          <t>333,76K</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-2,88%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="B46" t="n">
-        <v>87.69</v>
+        <v>88.08</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>85,00</t>
+          <t>86,37</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>87,83</t>
+          <t>89,85</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>82,31</t>
+          <t>84,39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>425,40K</t>
+          <t>1,20M</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B47" t="n">
-        <v>82.79000000000001</v>
+        <v>87.69</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>90,82</t>
+          <t>85,00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>91,88</t>
+          <t>87,83</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>81,50</t>
+          <t>82,31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1,61M</t>
+          <t>425,40K</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B48" t="n">
-        <v>90.79000000000001</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>90,55</t>
+          <t>90,82</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>95,03</t>
+          <t>91,88</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>88,19</t>
+          <t>81,50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,56M</t>
+          <t>1,61M</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>-8,81%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B49" t="n">
-        <v>90.03</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>91,20</t>
+          <t>90,55</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93,74</t>
+          <t>95,03</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>88,37</t>
+          <t>88,19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>600,88K</t>
+          <t>1,56M</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45179</v>
+        <v>45186</v>
       </c>
       <c r="B50" t="n">
-        <v>90.77</v>
+        <v>90.03</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>87,40</t>
+          <t>91,20</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>91,23</t>
+          <t>93,74</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>86,71</t>
+          <t>88,37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1,30M</t>
+          <t>600,88K</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45172</v>
+        <v>45179</v>
       </c>
       <c r="B51" t="n">
-        <v>87.51000000000001</v>
+        <v>90.77</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>86,06</t>
+          <t>87,40</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>88,08</t>
+          <t>91,23</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>85,02</t>
+          <t>86,71</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,03M</t>
+          <t>1,30M</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="B52" t="n">
-        <v>85.55</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>80,15</t>
+          <t>86,06</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>86,06</t>
+          <t>88,08</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>79,34</t>
+          <t>85,02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,20M</t>
+          <t>1,03M</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="B53" t="n">
-        <v>79.83</v>
+        <v>85.55</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>81,43</t>
+          <t>80,15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>82,47</t>
+          <t>86,06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>77,59</t>
+          <t>79,34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>864,94K</t>
+          <t>1,20M</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-1,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45151</v>
-      </c>
-      <c r="B54" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>83,08</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>83,19</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>78,95</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>128,09K</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-2,33%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
